--- a/www.eia.gov/forecasts/steo/xls/Fig5.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig5.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Natural Gas Prices</t>
@@ -50,7 +50,7 @@
     <t>Henry Hub</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -631,82 +631,82 @@
                   <c:v>13.74</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.36042</c:v>
+                  <c:v>10.76</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.05382</c:v>
+                  <c:v>9.8132370000000009</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.9181779999999993</c:v>
+                  <c:v>10.1983</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.023770000000001</c:v>
+                  <c:v>9.8720669999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.386760000000001</c:v>
+                  <c:v>10.225770000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.28434</c:v>
+                  <c:v>11.111269999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.21059</c:v>
+                  <c:v>13.0837</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.47472</c:v>
+                  <c:v>15.398870000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.63879</c:v>
+                  <c:v>16.615259999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.516200000000001</c:v>
+                  <c:v>17.446429999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.553439999999998</c:v>
+                  <c:v>16.494810000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13.55701</c:v>
+                  <c:v>13.49583</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11.1777</c:v>
+                  <c:v>11.117000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.31897</c:v>
+                  <c:v>10.23742</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.09097</c:v>
+                  <c:v>10.048310000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.177250000000001</c:v>
+                  <c:v>10.112299999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.47777</c:v>
+                  <c:v>10.440709999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>11.408530000000001</c:v>
+                  <c:v>11.35529</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.358409999999999</c:v>
+                  <c:v>13.36858</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.63327</c:v>
+                  <c:v>15.692629999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.813469999999999</c:v>
+                  <c:v>16.923449999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.693249999999999</c:v>
+                  <c:v>17.79383</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.727609999999999</c:v>
+                  <c:v>16.817240000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.72479</c:v>
+                  <c:v>13.798019999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.333310000000001</c:v>
+                  <c:v>11.380039999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.469799999999999</c:v>
+                  <c:v>10.48146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,76 +1105,76 @@
                   <c:v>3.7059120000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7151999999999998</c:v>
+                  <c:v>3.4097279999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.8148780000000002</c:v>
+                  <c:v>3.505128</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.7623829999999998</c:v>
+                  <c:v>3.5003669999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6614249999999999</c:v>
+                  <c:v>3.5006550000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.5937939999999999</c:v>
+                  <c:v>3.4730349999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5973790000000001</c:v>
+                  <c:v>3.5011049999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6027779999999998</c:v>
+                  <c:v>3.527911</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.5768550000000001</c:v>
+                  <c:v>3.5169299999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.5595319999999999</c:v>
+                  <c:v>3.5100419999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.5839819999999998</c:v>
+                  <c:v>3.5418059999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.6914479999999998</c:v>
+                  <c:v>3.6551719999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.852293</c:v>
+                  <c:v>3.81962</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.9157389999999999</c:v>
+                  <c:v>3.888674</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.931117</c:v>
+                  <c:v>3.9194100000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8981509999999999</c:v>
+                  <c:v>3.8827569999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.8647740000000002</c:v>
+                  <c:v>3.8517160000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8035329999999998</c:v>
+                  <c:v>3.7765870000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8052440000000001</c:v>
+                  <c:v>3.7726220000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.8027410000000001</c:v>
+                  <c:v>3.7675010000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.7670020000000002</c:v>
+                  <c:v>3.726788</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.7415980000000002</c:v>
+                  <c:v>3.6974629999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.757755</c:v>
+                  <c:v>3.71143</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.8584149999999999</c:v>
+                  <c:v>3.8117909999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0142249999999997</c:v>
+                  <c:v>3.967476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,8 +1191,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673163792"/>
-        <c:axId val="673153152"/>
+        <c:axId val="625600752"/>
+        <c:axId val="625610272"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1278,10 +1278,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,11 +1311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673145312"/>
-        <c:axId val="673152592"/>
+        <c:axId val="625599632"/>
+        <c:axId val="625606352"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="673163792"/>
+        <c:axId val="625600752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1332,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673153152"/>
+        <c:crossAx val="625610272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1343,7 +1343,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673153152"/>
+        <c:axId val="625610272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,12 +1369,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673163792"/>
+        <c:crossAx val="625600752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673145312"/>
+        <c:axId val="625599632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -1391,12 +1391,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673152592"/>
+        <c:crossAx val="625606352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673152592"/>
+        <c:axId val="625606352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1413,7 +1413,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673145312"/>
+        <c:crossAx val="625599632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1428,9 +1428,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27836849662084923"/>
-          <c:y val="0.12571743620804793"/>
-          <c:w val="0.36907112220728538"/>
+          <c:x val="0.27139985550586665"/>
+          <c:y val="0.13375760693229929"/>
+          <c:w val="0.33887367737569385"/>
           <c:h val="0.11627576138781728"/>
         </c:manualLayout>
       </c:layout>
@@ -1572,7 +1572,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2145,7 +2145,7 @@
             <v>42675</v>
           </cell>
           <cell r="B74">
-            <v>11.36042</v>
+            <v>10.76</v>
           </cell>
           <cell r="C74">
             <v>2.6295359999999999</v>
@@ -2156,7 +2156,7 @@
             <v>42705</v>
           </cell>
           <cell r="B75">
-            <v>10.05382</v>
+            <v>9.8132370000000009</v>
           </cell>
           <cell r="C75">
             <v>3.7059120000000001</v>
@@ -2167,10 +2167,10 @@
             <v>42736</v>
           </cell>
           <cell r="B76">
-            <v>9.9181779999999993</v>
+            <v>10.1983</v>
           </cell>
           <cell r="C76">
-            <v>3.7151999999999998</v>
+            <v>3.4097279999999999</v>
           </cell>
         </row>
         <row r="77">
@@ -2178,10 +2178,10 @@
             <v>42767</v>
           </cell>
           <cell r="B77">
-            <v>10.023770000000001</v>
+            <v>9.8720669999999995</v>
           </cell>
           <cell r="C77">
-            <v>3.8148780000000002</v>
+            <v>3.505128</v>
           </cell>
         </row>
         <row r="78">
@@ -2189,10 +2189,10 @@
             <v>42795</v>
           </cell>
           <cell r="B78">
-            <v>10.386760000000001</v>
+            <v>10.225770000000001</v>
           </cell>
           <cell r="C78">
-            <v>3.7623829999999998</v>
+            <v>3.5003669999999998</v>
           </cell>
         </row>
         <row r="79">
@@ -2200,10 +2200,10 @@
             <v>42826</v>
           </cell>
           <cell r="B79">
-            <v>11.28434</v>
+            <v>11.111269999999999</v>
           </cell>
           <cell r="C79">
-            <v>3.6614249999999999</v>
+            <v>3.5006550000000001</v>
           </cell>
         </row>
         <row r="80">
@@ -2211,10 +2211,10 @@
             <v>42856</v>
           </cell>
           <cell r="B80">
-            <v>13.21059</v>
+            <v>13.0837</v>
           </cell>
           <cell r="C80">
-            <v>3.5937939999999999</v>
+            <v>3.4730349999999999</v>
           </cell>
         </row>
         <row r="81">
@@ -2222,10 +2222,10 @@
             <v>42887</v>
           </cell>
           <cell r="B81">
-            <v>15.47472</v>
+            <v>15.398870000000001</v>
           </cell>
           <cell r="C81">
-            <v>3.5973790000000001</v>
+            <v>3.5011049999999999</v>
           </cell>
         </row>
         <row r="82">
@@ -2233,10 +2233,10 @@
             <v>42917</v>
           </cell>
           <cell r="B82">
-            <v>16.63879</v>
+            <v>16.615259999999999</v>
           </cell>
           <cell r="C82">
-            <v>3.6027779999999998</v>
+            <v>3.527911</v>
           </cell>
         </row>
         <row r="83">
@@ -2244,10 +2244,10 @@
             <v>42948</v>
           </cell>
           <cell r="B83">
-            <v>17.516200000000001</v>
+            <v>17.446429999999999</v>
           </cell>
           <cell r="C83">
-            <v>3.5768550000000001</v>
+            <v>3.5169299999999999</v>
           </cell>
         </row>
         <row r="84">
@@ -2255,10 +2255,10 @@
             <v>42979</v>
           </cell>
           <cell r="B84">
-            <v>16.553439999999998</v>
+            <v>16.494810000000001</v>
           </cell>
           <cell r="C84">
-            <v>3.5595319999999999</v>
+            <v>3.5100419999999999</v>
           </cell>
         </row>
         <row r="85">
@@ -2266,10 +2266,10 @@
             <v>43009</v>
           </cell>
           <cell r="B85">
-            <v>13.55701</v>
+            <v>13.49583</v>
           </cell>
           <cell r="C85">
-            <v>3.5839819999999998</v>
+            <v>3.5418059999999998</v>
           </cell>
         </row>
         <row r="86">
@@ -2277,10 +2277,10 @@
             <v>43040</v>
           </cell>
           <cell r="B86">
-            <v>11.1777</v>
+            <v>11.117000000000001</v>
           </cell>
           <cell r="C86">
-            <v>3.6914479999999998</v>
+            <v>3.6551719999999999</v>
           </cell>
         </row>
         <row r="87">
@@ -2288,10 +2288,10 @@
             <v>43070</v>
           </cell>
           <cell r="B87">
-            <v>10.31897</v>
+            <v>10.23742</v>
           </cell>
           <cell r="C87">
-            <v>3.852293</v>
+            <v>3.81962</v>
           </cell>
         </row>
         <row r="88">
@@ -2299,10 +2299,10 @@
             <v>43101</v>
           </cell>
           <cell r="B88">
-            <v>10.09097</v>
+            <v>10.048310000000001</v>
           </cell>
           <cell r="C88">
-            <v>3.9157389999999999</v>
+            <v>3.888674</v>
           </cell>
         </row>
         <row r="89">
@@ -2310,10 +2310,10 @@
             <v>43132</v>
           </cell>
           <cell r="B89">
-            <v>10.177250000000001</v>
+            <v>10.112299999999999</v>
           </cell>
           <cell r="C89">
-            <v>3.931117</v>
+            <v>3.9194100000000001</v>
           </cell>
         </row>
         <row r="90">
@@ -2321,10 +2321,10 @@
             <v>43160</v>
           </cell>
           <cell r="B90">
-            <v>10.47777</v>
+            <v>10.440709999999999</v>
           </cell>
           <cell r="C90">
-            <v>3.8981509999999999</v>
+            <v>3.8827569999999998</v>
           </cell>
         </row>
         <row r="91">
@@ -2332,10 +2332,10 @@
             <v>43191</v>
           </cell>
           <cell r="B91">
-            <v>11.408530000000001</v>
+            <v>11.35529</v>
           </cell>
           <cell r="C91">
-            <v>3.8647740000000002</v>
+            <v>3.8517160000000001</v>
           </cell>
         </row>
         <row r="92">
@@ -2343,10 +2343,10 @@
             <v>43221</v>
           </cell>
           <cell r="B92">
-            <v>13.358409999999999</v>
+            <v>13.36858</v>
           </cell>
           <cell r="C92">
-            <v>3.8035329999999998</v>
+            <v>3.7765870000000001</v>
           </cell>
         </row>
         <row r="93">
@@ -2354,10 +2354,10 @@
             <v>43252</v>
           </cell>
           <cell r="B93">
-            <v>15.63327</v>
+            <v>15.692629999999999</v>
           </cell>
           <cell r="C93">
-            <v>3.8052440000000001</v>
+            <v>3.7726220000000001</v>
           </cell>
         </row>
         <row r="94">
@@ -2365,10 +2365,10 @@
             <v>43282</v>
           </cell>
           <cell r="B94">
-            <v>16.813469999999999</v>
+            <v>16.923449999999999</v>
           </cell>
           <cell r="C94">
-            <v>3.8027410000000001</v>
+            <v>3.7675010000000002</v>
           </cell>
         </row>
         <row r="95">
@@ -2376,10 +2376,10 @@
             <v>43313</v>
           </cell>
           <cell r="B95">
-            <v>17.693249999999999</v>
+            <v>17.79383</v>
           </cell>
           <cell r="C95">
-            <v>3.7670020000000002</v>
+            <v>3.726788</v>
           </cell>
         </row>
         <row r="96">
@@ -2387,10 +2387,10 @@
             <v>43344</v>
           </cell>
           <cell r="B96">
-            <v>16.727609999999999</v>
+            <v>16.817240000000002</v>
           </cell>
           <cell r="C96">
-            <v>3.7415980000000002</v>
+            <v>3.6974629999999999</v>
           </cell>
         </row>
         <row r="97">
@@ -2398,10 +2398,10 @@
             <v>43374</v>
           </cell>
           <cell r="B97">
-            <v>13.72479</v>
+            <v>13.798019999999999</v>
           </cell>
           <cell r="C97">
-            <v>3.757755</v>
+            <v>3.71143</v>
           </cell>
         </row>
         <row r="98">
@@ -2409,10 +2409,10 @@
             <v>43405</v>
           </cell>
           <cell r="B98">
-            <v>11.333310000000001</v>
+            <v>11.380039999999999</v>
           </cell>
           <cell r="C98">
-            <v>3.8584149999999999</v>
+            <v>3.8117909999999999</v>
           </cell>
         </row>
         <row r="99">
@@ -2420,10 +2420,10 @@
             <v>43435</v>
           </cell>
           <cell r="B99">
-            <v>10.469799999999999</v>
+            <v>10.48146</v>
           </cell>
           <cell r="C99">
-            <v>4.0142249999999997</v>
+            <v>3.967476</v>
           </cell>
         </row>
         <row r="102">
@@ -2433,7 +2433,7 @@
         </row>
         <row r="103">
           <cell r="A103">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B103">
             <v>0</v>
@@ -2441,7 +2441,7 @@
         </row>
         <row r="104">
           <cell r="A104">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B104">
             <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>42675</v>
       </c>
       <c r="B74" s="12">
-        <v>11.36042</v>
+        <v>10.76</v>
       </c>
       <c r="C74" s="12">
         <v>2.6295359999999999</v>
@@ -3363,7 +3363,7 @@
         <v>42705</v>
       </c>
       <c r="B75" s="12">
-        <v>10.05382</v>
+        <v>9.8132370000000009</v>
       </c>
       <c r="C75" s="12">
         <v>3.7059120000000001</v>
@@ -3375,10 +3375,10 @@
         <v>42736</v>
       </c>
       <c r="B76" s="12">
-        <v>9.9181779999999993</v>
+        <v>10.1983</v>
       </c>
       <c r="C76" s="12">
-        <v>3.7151999999999998</v>
+        <v>3.4097279999999999</v>
       </c>
       <c r="D76" s="13"/>
     </row>
@@ -3387,10 +3387,10 @@
         <v>42767</v>
       </c>
       <c r="B77" s="12">
-        <v>10.023770000000001</v>
+        <v>9.8720669999999995</v>
       </c>
       <c r="C77" s="12">
-        <v>3.8148780000000002</v>
+        <v>3.505128</v>
       </c>
       <c r="D77" s="13"/>
     </row>
@@ -3399,10 +3399,10 @@
         <v>42795</v>
       </c>
       <c r="B78" s="12">
-        <v>10.386760000000001</v>
+        <v>10.225770000000001</v>
       </c>
       <c r="C78" s="12">
-        <v>3.7623829999999998</v>
+        <v>3.5003669999999998</v>
       </c>
       <c r="D78" s="13"/>
     </row>
@@ -3411,10 +3411,10 @@
         <v>42826</v>
       </c>
       <c r="B79" s="12">
-        <v>11.28434</v>
+        <v>11.111269999999999</v>
       </c>
       <c r="C79" s="12">
-        <v>3.6614249999999999</v>
+        <v>3.5006550000000001</v>
       </c>
       <c r="D79" s="13"/>
     </row>
@@ -3423,10 +3423,10 @@
         <v>42856</v>
       </c>
       <c r="B80" s="12">
-        <v>13.21059</v>
+        <v>13.0837</v>
       </c>
       <c r="C80" s="12">
-        <v>3.5937939999999999</v>
+        <v>3.4730349999999999</v>
       </c>
       <c r="D80" s="13"/>
     </row>
@@ -3435,10 +3435,10 @@
         <v>42887</v>
       </c>
       <c r="B81" s="12">
-        <v>15.47472</v>
+        <v>15.398870000000001</v>
       </c>
       <c r="C81" s="12">
-        <v>3.5973790000000001</v>
+        <v>3.5011049999999999</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -3447,10 +3447,10 @@
         <v>42917</v>
       </c>
       <c r="B82" s="12">
-        <v>16.63879</v>
+        <v>16.615259999999999</v>
       </c>
       <c r="C82" s="12">
-        <v>3.6027779999999998</v>
+        <v>3.527911</v>
       </c>
       <c r="D82" s="13"/>
     </row>
@@ -3459,10 +3459,10 @@
         <v>42948</v>
       </c>
       <c r="B83" s="12">
-        <v>17.516200000000001</v>
+        <v>17.446429999999999</v>
       </c>
       <c r="C83" s="12">
-        <v>3.5768550000000001</v>
+        <v>3.5169299999999999</v>
       </c>
       <c r="D83" s="13"/>
     </row>
@@ -3471,10 +3471,10 @@
         <v>42979</v>
       </c>
       <c r="B84" s="12">
-        <v>16.553439999999998</v>
+        <v>16.494810000000001</v>
       </c>
       <c r="C84" s="12">
-        <v>3.5595319999999999</v>
+        <v>3.5100419999999999</v>
       </c>
       <c r="D84" s="13"/>
     </row>
@@ -3483,10 +3483,10 @@
         <v>43009</v>
       </c>
       <c r="B85" s="12">
-        <v>13.55701</v>
+        <v>13.49583</v>
       </c>
       <c r="C85" s="12">
-        <v>3.5839819999999998</v>
+        <v>3.5418059999999998</v>
       </c>
       <c r="D85" s="13"/>
     </row>
@@ -3495,10 +3495,10 @@
         <v>43040</v>
       </c>
       <c r="B86" s="12">
-        <v>11.1777</v>
+        <v>11.117000000000001</v>
       </c>
       <c r="C86" s="12">
-        <v>3.6914479999999998</v>
+        <v>3.6551719999999999</v>
       </c>
       <c r="D86" s="13"/>
     </row>
@@ -3507,10 +3507,10 @@
         <v>43070</v>
       </c>
       <c r="B87" s="12">
-        <v>10.31897</v>
+        <v>10.23742</v>
       </c>
       <c r="C87" s="12">
-        <v>3.852293</v>
+        <v>3.81962</v>
       </c>
       <c r="D87" s="13"/>
     </row>
@@ -3519,10 +3519,10 @@
         <v>43101</v>
       </c>
       <c r="B88" s="12">
-        <v>10.09097</v>
+        <v>10.048310000000001</v>
       </c>
       <c r="C88" s="12">
-        <v>3.9157389999999999</v>
+        <v>3.888674</v>
       </c>
       <c r="D88" s="13"/>
     </row>
@@ -3531,10 +3531,10 @@
         <v>43132</v>
       </c>
       <c r="B89" s="12">
-        <v>10.177250000000001</v>
+        <v>10.112299999999999</v>
       </c>
       <c r="C89" s="12">
-        <v>3.931117</v>
+        <v>3.9194100000000001</v>
       </c>
       <c r="D89" s="13"/>
     </row>
@@ -3543,10 +3543,10 @@
         <v>43160</v>
       </c>
       <c r="B90" s="12">
-        <v>10.47777</v>
+        <v>10.440709999999999</v>
       </c>
       <c r="C90" s="12">
-        <v>3.8981509999999999</v>
+        <v>3.8827569999999998</v>
       </c>
       <c r="D90" s="13"/>
     </row>
@@ -3555,10 +3555,10 @@
         <v>43191</v>
       </c>
       <c r="B91" s="12">
-        <v>11.408530000000001</v>
+        <v>11.35529</v>
       </c>
       <c r="C91" s="12">
-        <v>3.8647740000000002</v>
+        <v>3.8517160000000001</v>
       </c>
       <c r="D91" s="13"/>
     </row>
@@ -3567,10 +3567,10 @@
         <v>43221</v>
       </c>
       <c r="B92" s="12">
-        <v>13.358409999999999</v>
+        <v>13.36858</v>
       </c>
       <c r="C92" s="12">
-        <v>3.8035329999999998</v>
+        <v>3.7765870000000001</v>
       </c>
       <c r="D92" s="13"/>
     </row>
@@ -3579,10 +3579,10 @@
         <v>43252</v>
       </c>
       <c r="B93" s="12">
-        <v>15.63327</v>
+        <v>15.692629999999999</v>
       </c>
       <c r="C93" s="12">
-        <v>3.8052440000000001</v>
+        <v>3.7726220000000001</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -3591,10 +3591,10 @@
         <v>43282</v>
       </c>
       <c r="B94" s="12">
-        <v>16.813469999999999</v>
+        <v>16.923449999999999</v>
       </c>
       <c r="C94" s="12">
-        <v>3.8027410000000001</v>
+        <v>3.7675010000000002</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -3603,10 +3603,10 @@
         <v>43313</v>
       </c>
       <c r="B95" s="12">
-        <v>17.693249999999999</v>
+        <v>17.79383</v>
       </c>
       <c r="C95" s="12">
-        <v>3.7670020000000002</v>
+        <v>3.726788</v>
       </c>
       <c r="D95" s="13"/>
     </row>
@@ -3615,10 +3615,10 @@
         <v>43344</v>
       </c>
       <c r="B96" s="12">
-        <v>16.727609999999999</v>
+        <v>16.817240000000002</v>
       </c>
       <c r="C96" s="12">
-        <v>3.7415980000000002</v>
+        <v>3.6974629999999999</v>
       </c>
       <c r="D96" s="13"/>
     </row>
@@ -3627,10 +3627,10 @@
         <v>43374</v>
       </c>
       <c r="B97" s="12">
-        <v>13.72479</v>
+        <v>13.798019999999999</v>
       </c>
       <c r="C97" s="12">
-        <v>3.757755</v>
+        <v>3.71143</v>
       </c>
       <c r="D97" s="13"/>
     </row>
@@ -3639,10 +3639,10 @@
         <v>43405</v>
       </c>
       <c r="B98" s="12">
-        <v>11.333310000000001</v>
+        <v>11.380039999999999</v>
       </c>
       <c r="C98" s="12">
-        <v>3.8584149999999999</v>
+        <v>3.8117909999999999</v>
       </c>
       <c r="D98" s="13"/>
     </row>
@@ -3651,10 +3651,10 @@
         <v>43435</v>
       </c>
       <c r="B99" s="15">
-        <v>10.469799999999999</v>
+        <v>10.48146</v>
       </c>
       <c r="C99" s="15">
-        <v>4.0142249999999997</v>
+        <v>3.967476</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
